--- a/ctv.xlsx
+++ b/ctv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B265C57-B901-4684-A412-40AA5258FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1D87D-3BA1-4EAA-88DC-D4547524E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE6026AE-DACA-4F56-A89F-E5982972C980}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE6026AE-DACA-4F56-A89F-E5982972C980}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>Mã CTV</t>
   </si>
@@ -140,9 +138,6 @@
     <t>Mbbank</t>
   </si>
   <si>
-    <t>0985227205</t>
-  </si>
-  <si>
     <t>1907 2059 3100 13</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
     <t>Mb Bank</t>
   </si>
   <si>
-    <t>Tech</t>
-  </si>
-  <si>
     <t>Vietin</t>
   </si>
   <si>
@@ -329,9 +321,6 @@
     <t>030702006</t>
   </si>
   <si>
-    <t xml:space="preserve">840981497390 </t>
-  </si>
-  <si>
     <t xml:space="preserve">00905061216145 </t>
   </si>
   <si>
@@ -369,15 +358,73 @@
   </si>
   <si>
     <t>Lương</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>Cao Minh Quang</t>
+  </si>
+  <si>
+    <t>0868184984</t>
+  </si>
+  <si>
+    <t>0327826605</t>
+  </si>
+  <si>
+    <t>0364120625</t>
+  </si>
+  <si>
+    <t>0368754251</t>
+  </si>
+  <si>
+    <t>0729042006</t>
+  </si>
+  <si>
+    <t>0337294416</t>
+  </si>
+  <si>
+    <t>0985227204</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Thảo Nhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84981497390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Phương Linh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Phương Anh </t>
+  </si>
+  <si>
+    <t>Vietinbank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -404,15 +451,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,585 +805,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36A7F2D-6190-4335-B883-A429488199B2}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>1234568698</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="2">
-        <v>368754251</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>1017236835</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2">
-        <v>327826605</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>9099992710</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2">
-        <v>729042006</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2">
-        <v>337294416</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2">
-        <v>364120625</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="D28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1034145096</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="3" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>86</v>
-      </c>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="7">
+        <v>969689108</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="7">
+        <v>103873987175</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
